--- a/project.xlsx
+++ b/project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\parking-sum_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D58627-CFBC-499F-90E2-2EDFCB6DB8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184AA659-76FF-414F-B455-186948644158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="2520" windowWidth="24216" windowHeight="13716" xr2:uid="{1281036D-401A-40FA-BC10-3B0649BD13C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1281036D-401A-40FA-BC10-3B0649BD13C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,10 +134,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +475,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -487,7 +486,7 @@
     <col min="4" max="4" width="23.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,524 +509,69 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project.xlsx
+++ b/project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\parking-sum_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184AA659-76FF-414F-B455-186948644158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A85753B-CF6F-4011-AD72-0549DE9BD7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1281036D-401A-40FA-BC10-3B0649BD13C2}"/>
+    <workbookView xWindow="28692" yWindow="2520" windowWidth="24216" windowHeight="13716" xr2:uid="{1281036D-401A-40FA-BC10-3B0649BD13C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>tài khoản</t>
   </si>
@@ -84,16 +84,119 @@
   </si>
   <si>
     <t>tạo tài khoản staff</t>
+  </si>
+  <si>
+    <t>vault</t>
+  </si>
+  <si>
+    <t>create owner</t>
+  </si>
+  <si>
+    <t>get owner</t>
+  </si>
+  <si>
+    <t>block owner</t>
+  </si>
+  <si>
+    <t>create add cash</t>
+  </si>
+  <si>
+    <t>get all</t>
+  </si>
+  <si>
+    <t>get cash accepted</t>
+  </si>
+  <si>
+    <t>get cash waiting</t>
+  </si>
+  <si>
+    <t>get cash cancelled</t>
+  </si>
+  <si>
+    <t>statistics deposit</t>
+  </si>
+  <si>
+    <t>create fluctuation</t>
+  </si>
+  <si>
+    <t>get all fluctuation</t>
+  </si>
+  <si>
+    <t>consumption statistics</t>
+  </si>
+  <si>
+    <t>ticket</t>
+  </si>
+  <si>
+    <t>create category</t>
+  </si>
+  <si>
+    <t>update category</t>
+  </si>
+  <si>
+    <t>create station</t>
+  </si>
+  <si>
+    <t>update address</t>
+  </si>
+  <si>
+    <t>delete station</t>
+  </si>
+  <si>
+    <t>create ticket</t>
+  </si>
+  <si>
+    <t>add plate</t>
+  </si>
+  <si>
+    <t>add plate define</t>
+  </si>
+  <si>
+    <t>extend ticket</t>
+  </si>
+  <si>
+    <t>cancle ticket</t>
+  </si>
+  <si>
+    <t>render qr</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>internal add profile customer</t>
+  </si>
+  <si>
+    <t>internal add profile staff</t>
+  </si>
+  <si>
+    <t>upload avatar</t>
+  </si>
+  <si>
+    <t>update profile</t>
+  </si>
+  <si>
+    <t>active phone</t>
+  </si>
+  <si>
+    <t>add avatar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,10 +237,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,7 +579,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -484,6 +588,9 @@
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="21.59765625" customWidth="1"/>
     <col min="4" max="4" width="23.796875" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
+    <col min="6" max="6" width="19.09765625" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -499,9 +606,15 @@
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -523,6 +636,15 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -534,6 +656,15 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -542,11 +673,22 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="E5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -554,6 +696,101 @@
       </c>
       <c r="D6" t="s">
         <v>11</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -575,5 +812,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/project.xlsx
+++ b/project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\parking-sum_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A85753B-CF6F-4011-AD72-0549DE9BD7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08A214D-DCB1-4E36-A953-188A8F94D4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="2520" windowWidth="24216" windowHeight="13716" xr2:uid="{1281036D-401A-40FA-BC10-3B0649BD13C2}"/>
+    <workbookView xWindow="28704" yWindow="2628" windowWidth="12192" windowHeight="13596" xr2:uid="{1281036D-401A-40FA-BC10-3B0649BD13C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>tài khoản</t>
   </si>
@@ -98,27 +98,12 @@
     <t>block owner</t>
   </si>
   <si>
-    <t>create add cash</t>
-  </si>
-  <si>
     <t>get all</t>
   </si>
   <si>
-    <t>get cash accepted</t>
-  </si>
-  <si>
-    <t>get cash waiting</t>
-  </si>
-  <si>
-    <t>get cash cancelled</t>
-  </si>
-  <si>
     <t>statistics deposit</t>
   </si>
   <si>
-    <t>create fluctuation</t>
-  </si>
-  <si>
     <t>get all fluctuation</t>
   </si>
   <si>
@@ -179,14 +164,38 @@
     <t>active phone</t>
   </si>
   <si>
-    <t>add avatar</t>
+    <t>get all deposit accepted</t>
+  </si>
+  <si>
+    <t>get all deposit waiting</t>
+  </si>
+  <si>
+    <t>get all deposit cancelled</t>
+  </si>
+  <si>
+    <t>get deposit accepted</t>
+  </si>
+  <si>
+    <t>get deposit waiting</t>
+  </si>
+  <si>
+    <t>get deposit cancelled</t>
+  </si>
+  <si>
+    <t>add deposit</t>
+  </si>
+  <si>
+    <t>update wallet</t>
+  </si>
+  <si>
+    <t>approve deposit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +208,19 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -237,11 +259,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1139DD5-60D5-4507-9C12-22C87FFE9F87}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -607,13 +631,13 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -637,13 +661,13 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -656,14 +680,14 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>45</v>
+      <c r="E3" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -674,13 +698,13 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -698,99 +722,124 @@
         <v>11</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>20</v>
+      <c r="F6" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>23</v>
+      <c r="F9" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E10" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="3"/>
+      <c r="E11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="G11" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>25</v>
+      <c r="F12" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>26</v>
+      <c r="F14" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F20" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F21" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F24" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">

--- a/project.xlsx
+++ b/project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\parking-sum_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08A214D-DCB1-4E36-A953-188A8F94D4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDB0028-7EDC-4B1C-944D-97337B5D7B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28704" yWindow="2628" windowWidth="12192" windowHeight="13596" xr2:uid="{1281036D-401A-40FA-BC10-3B0649BD13C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1281036D-401A-40FA-BC10-3B0649BD13C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Lê Đăng Chiến</author>
+  </authors>
+  <commentList>
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{BCBD46B3-008D-40E9-BD68-E2FFFA0BBAF9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t>Lê Đăng Chiến:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t xml:space="preserve">
+update address, …
+update status</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>tài khoản</t>
   </si>
@@ -189,13 +226,19 @@
   </si>
   <si>
     <t>approve deposit</t>
+  </si>
+  <si>
+    <t>filter station</t>
+  </si>
+  <si>
+    <t>find category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +265,21 @@
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="3">
@@ -599,11 +657,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1139DD5-60D5-4507-9C12-22C87FFE9F87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1139DD5-60D5-4507-9C12-22C87FFE9F87}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -613,7 +671,7 @@
     <col min="3" max="3" width="21.59765625" customWidth="1"/>
     <col min="4" max="4" width="23.796875" customWidth="1"/>
     <col min="5" max="5" width="25.5" customWidth="1"/>
-    <col min="6" max="6" width="19.09765625" customWidth="1"/>
+    <col min="6" max="6" width="20.59765625" customWidth="1"/>
     <col min="7" max="7" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -666,7 +724,7 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -686,7 +744,7 @@
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -703,7 +761,7 @@
       <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -712,7 +770,9 @@
         <v>5</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -725,9 +785,6 @@
       <c r="F6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
@@ -736,8 +793,8 @@
       <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>26</v>
+      <c r="G7" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -747,15 +804,17 @@
       <c r="F8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E9" s="3"/>
       <c r="F9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>30</v>
+      <c r="G9" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -763,16 +822,13 @@
       <c r="F10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E11" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -781,7 +837,7 @@
         <v>20</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -789,7 +845,9 @@
       <c r="F13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E14" s="3"/>
@@ -797,7 +855,7 @@
         <v>46</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -811,12 +869,18 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F17" s="3" t="s">
         <v>21</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G18" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -862,5 +926,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/project.xlsx
+++ b/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\parking-sum_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDB0028-7EDC-4B1C-944D-97337B5D7B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0414D2D-8B6F-47BD-A395-D2186E3C64AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1281036D-401A-40FA-BC10-3B0649BD13C2}"/>
   </bookViews>
@@ -165,12 +165,6 @@
     <t>delete station</t>
   </si>
   <si>
-    <t>create ticket</t>
-  </si>
-  <si>
-    <t>add plate</t>
-  </si>
-  <si>
     <t>add plate define</t>
   </si>
   <si>
@@ -232,6 +226,12 @@
   </si>
   <si>
     <t>find category</t>
+  </si>
+  <si>
+    <t>buy ticket</t>
+  </si>
+  <si>
+    <t>auto approve</t>
   </si>
 </sst>
 </file>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1139DD5-60D5-4507-9C12-22C87FFE9F87}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -689,7 +689,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
@@ -719,7 +719,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -739,7 +739,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -756,9 +756,9 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -771,7 +771,7 @@
       </c>
       <c r="E5" s="3"/>
       <c r="G5" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -783,12 +783,12 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>20</v>
@@ -799,10 +799,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>26</v>
@@ -811,24 +811,24 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E9" s="3"/>
       <c r="F9" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -836,32 +836,32 @@
       <c r="F12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>32</v>
+      <c r="G12" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E13" s="3"/>
       <c r="F13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E14" s="3"/>
       <c r="F14" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G15" s="3"/>
     </row>
@@ -869,7 +869,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -878,11 +878,6 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G18" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F19" s="3"/>
     </row>
@@ -898,12 +893,17 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F24" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F27" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">

--- a/project.xlsx
+++ b/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\parking-sum_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0414D2D-8B6F-47BD-A395-D2186E3C64AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E798902-E7ED-4E2C-99B8-9DEBF332D7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1281036D-401A-40FA-BC10-3B0649BD13C2}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>tài khoản</t>
   </si>
@@ -232,6 +232,18 @@
   </si>
   <si>
     <t>auto approve</t>
+  </si>
+  <si>
+    <t>cancel deposit</t>
+  </si>
+  <si>
+    <t>staff cancel deposit</t>
+  </si>
+  <si>
+    <t>get all fluctuation of customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> customer get all fluctuation</t>
   </si>
 </sst>
 </file>
@@ -317,13 +329,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1139DD5-60D5-4507-9C12-22C87FFE9F87}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -790,8 +803,8 @@
       <c r="E7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>20</v>
+      <c r="F7" t="s">
+        <v>53</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>25</v>
@@ -802,7 +815,7 @@
         <v>38</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>26</v>
@@ -810,23 +823,23 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E9" s="3"/>
-      <c r="F9" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="G9" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>42</v>
+      <c r="F10" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E11" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="F11" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="G11" s="4" t="s">
         <v>51</v>
       </c>
@@ -834,7 +847,7 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E12" s="3"/>
       <c r="F12" s="4" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>30</v>
@@ -843,7 +856,7 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E13" s="3"/>
       <c r="F13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>32</v>
@@ -851,77 +864,142 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E14" s="3"/>
-      <c r="F14" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>45</v>
+      <c r="F15" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="G16" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F17" s="3" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F18" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F20" s="3" t="s">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F22" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F23" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F24" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F21" s="3" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F25" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F24" s="4" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F27" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F26" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F27" s="3" t="s">
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project.xlsx
+++ b/project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\parking-sum_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E798902-E7ED-4E2C-99B8-9DEBF332D7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D32C61-2A0F-4CBD-B14C-081D70FF2F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1281036D-401A-40FA-BC10-3B0649BD13C2}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>tài khoản</t>
   </si>
@@ -244,6 +244,21 @@
   </si>
   <si>
     <t xml:space="preserve"> customer get all fluctuation</t>
+  </si>
+  <si>
+    <t>checkin</t>
+  </si>
+  <si>
+    <t>checkout</t>
+  </si>
+  <si>
+    <t>info ticket</t>
+  </si>
+  <si>
+    <t>udpate status category</t>
+  </si>
+  <si>
+    <t>cancle qr</t>
   </si>
 </sst>
 </file>
@@ -336,7 +351,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1139DD5-60D5-4507-9C12-22C87FFE9F87}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -684,7 +699,7 @@
     <col min="3" max="3" width="21.59765625" customWidth="1"/>
     <col min="4" max="4" width="23.796875" customWidth="1"/>
     <col min="5" max="5" width="25.5" customWidth="1"/>
-    <col min="6" max="6" width="20.59765625" customWidth="1"/>
+    <col min="6" max="6" width="24.796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -832,6 +847,9 @@
       <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="G10" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E11" s="4" t="s">
@@ -839,9 +857,6 @@
       </c>
       <c r="F11" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -850,7 +865,7 @@
         <v>41</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -859,13 +874,13 @@
         <v>42</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>31</v>
+      <c r="G14" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -873,133 +888,87 @@
       <c r="F15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E16" s="3"/>
       <c r="F16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F17" s="4" t="s">
         <v>44</v>
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F18" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G18" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F20" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G20" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F22" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G22" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F23" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F24" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F25" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F27" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project.xlsx
+++ b/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\parking-sum_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D32C61-2A0F-4CBD-B14C-081D70FF2F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0CCCBD-1183-4742-805E-1A08A4BA2111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1281036D-401A-40FA-BC10-3B0649BD13C2}"/>
   </bookViews>
@@ -73,20 +73,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
-  <si>
-    <t>tài khoản</t>
-  </si>
-  <si>
-    <t>đăng nhập</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>authentication</t>
   </si>
   <si>
-    <t>đăng xuất</t>
-  </si>
-  <si>
     <t>refresh token</t>
   </si>
   <si>
@@ -111,18 +102,6 @@
     <t>send email</t>
   </si>
   <si>
-    <t>tạo tài khoản customer</t>
-  </si>
-  <si>
-    <t>khoá tài khoản customer</t>
-  </si>
-  <si>
-    <t>xem thông tin cá nhân customer</t>
-  </si>
-  <si>
-    <t>tạo tài khoản staff</t>
-  </si>
-  <si>
     <t>vault</t>
   </si>
   <si>
@@ -259,6 +238,51 @@
   </si>
   <si>
     <t>cancle qr</t>
+  </si>
+  <si>
+    <t>coupon</t>
+  </si>
+  <si>
+    <t>create coupon</t>
+  </si>
+  <si>
+    <t>add history use coupon</t>
+  </si>
+  <si>
+    <t>update coupon</t>
+  </si>
+  <si>
+    <t>approve coupon</t>
+  </si>
+  <si>
+    <t>delete coupon</t>
+  </si>
+  <si>
+    <t>create customer</t>
+  </si>
+  <si>
+    <t>show info customer</t>
+  </si>
+  <si>
+    <t>lock customer</t>
+  </si>
+  <si>
+    <t>create staff</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>get my coupon</t>
+  </si>
+  <si>
+    <t>get coupon need approve</t>
   </si>
 </sst>
 </file>
@@ -323,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -331,23 +355,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -686,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1139DD5-60D5-4507-9C12-22C87FFE9F87}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -705,27 +719,29 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -735,240 +751,255 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>27</v>
+      <c r="G2" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>38</v>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
+      <c r="G5" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
         <v>46</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E9" s="2"/>
+      <c r="F9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E10" s="2"/>
+      <c r="F10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+      <c r="F12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E13" s="2"/>
+      <c r="F13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E8" s="3" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E14" s="2"/>
+      <c r="F14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E15" s="2"/>
+      <c r="F15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E16" s="2"/>
+      <c r="F16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E9" s="3"/>
-      <c r="G9" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E10" s="3"/>
-      <c r="F10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="4" t="s">
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E12" s="3"/>
-      <c r="F12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="4" t="s">
+    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E13" s="3"/>
-      <c r="F13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E14" s="3"/>
-      <c r="G14" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E15" s="3"/>
-      <c r="F15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E16" s="3"/>
-      <c r="F16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="3"/>
-      <c r="G19" s="4" t="s">
+    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="F30" s="4" t="s">
-        <v>52</v>
-      </c>
+    </row>
+    <row r="25" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
